--- a/hard-rock.xlsx
+++ b/hard-rock.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MT1ShotYT\Desktop\Music-Categorizer\Music-Categorizer\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MT1ShotYT\Desktop\Music-Categorizer\Music-Categorizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16FC7248-9CDB-43EC-8FC9-2361CAD4C6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5E3704-B768-4F85-8292-184364FBC25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hard-rock" sheetId="1" r:id="rId1"/>
@@ -1057,7 +1057,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1891,11 +1891,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A345"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/hard-rock.xlsx
+++ b/hard-rock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MT1ShotYT\Desktop\Music-Categorizer\Music-Categorizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5E3704-B768-4F85-8292-184364FBC25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666527B7-4B47-45DA-A7A5-DF4355DC1254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3750" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hard-rock" sheetId="1" r:id="rId1"/>
@@ -1894,8 +1894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/hard-rock.xlsx
+++ b/hard-rock.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MT1ShotYT\Desktop\Music-Categorizer\Music-Categorizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666527B7-4B47-45DA-A7A5-DF4355DC1254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CEEF06-28B6-4F8C-8DF3-2C41AA1E7418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3750" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13035" yWindow="5325" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hard-rock" sheetId="1" r:id="rId1"/>
@@ -1894,8 +1894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
+    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
+      <selection activeCell="A281" sqref="A281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/hard-rock.xlsx
+++ b/hard-rock.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MT1ShotYT\Desktop\Music-Categorizer\Music-Categorizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CEEF06-28B6-4F8C-8DF3-2C41AA1E7418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8A3B0F-5084-4181-8825-2CA111135851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13035" yWindow="5325" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hard-rock" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="345">
   <si>
     <t>Names</t>
   </si>
@@ -1052,6 +1052,9 @@
   </si>
   <si>
     <t>ZZ Top</t>
+  </si>
+  <si>
+    <t>The Warning</t>
   </si>
 </sst>
 </file>
@@ -1892,10 +1895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A345"/>
+  <dimension ref="A1:A346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
-      <selection activeCell="A281" sqref="A281"/>
+    <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
+      <selection activeCell="A347" sqref="A347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3628,6 +3631,11 @@
         <v>343</v>
       </c>
     </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>344</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
